--- a/biology/Botanique/Forêts_côtières_d'Afrique_orientale/Forêts_côtières_d'Afrique_orientale.xlsx
+++ b/biology/Botanique/Forêts_côtières_d'Afrique_orientale/Forêts_côtières_d'Afrique_orientale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_c%C3%B4ti%C3%A8res_d%27Afrique_orientale</t>
+          <t>Forêts_côtières_d'Afrique_orientale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts côtières d'Afrique orientale forment un ensemble biogéographique défini par Conservation International comme un point chaud de biodiversité. 
  Portail du bois et de la forêt   Portail de la conservation de la nature   Portail de l’Afrique                   </t>
